--- a/ResultadoEleicoesDistritos/PORTO_PORTO.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_PORTO.xlsx
@@ -597,64 +597,64 @@
         <v>61364</v>
       </c>
       <c r="H2" t="n">
-        <v>2394</v>
+        <v>2287</v>
       </c>
       <c r="I2" t="n">
-        <v>6131</v>
+        <v>6172</v>
       </c>
       <c r="J2" t="n">
-        <v>25365</v>
+        <v>25402</v>
       </c>
       <c r="K2" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L2" t="n">
-        <v>6913</v>
+        <v>7065</v>
       </c>
       <c r="M2" t="n">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N2" t="n">
-        <v>4502</v>
+        <v>4335</v>
       </c>
       <c r="O2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="Q2" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R2" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="S2" t="n">
-        <v>2677</v>
+        <v>2657</v>
       </c>
       <c r="T2" t="n">
-        <v>4472</v>
+        <v>4408</v>
       </c>
       <c r="U2" t="n">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="V2" t="n">
-        <v>39127</v>
+        <v>39208</v>
       </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>39104</v>
+        <v>39185</v>
       </c>
       <c r="Y2" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Z2" t="n">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="AA2" t="n">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
